--- a/planning/TASKS_InstrumentToolkit.xlsx
+++ b/planning/TASKS_InstrumentToolkit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Task</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Develop specialized nodes that signal alerting conditions based on deviation from previous metric patterns</t>
-  </si>
-  <si>
     <t>Board Selection</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
   </si>
   <si>
     <t>Develop an integration node and other components to integrate with and input data from the EnviroDIY Mayfly data logger</t>
-  </si>
-  <si>
-    <t>Trend Analysis Node</t>
   </si>
   <si>
     <t>Mayfly Source Node</t>
@@ -459,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,16 +477,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -500,13 +494,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="2" t="str">
-        <f>TEXT(D2,"DD-MMM-YY")</f>
+        <f t="shared" ref="C2:C8" si="0">TEXT(D2,"DD-MMM-YY")</f>
         <v>01-May-19</v>
       </c>
       <c r="D2" s="1">
@@ -519,18 +513,18 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>TEXT(D3,"DD-MMM-YY")</f>
+        <f t="shared" si="0"/>
         <v>01-Jul-19</v>
       </c>
       <c r="D3" s="1">
@@ -543,18 +537,18 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f>TEXT(D4,"DD-MMM-YY")</f>
+        <f t="shared" si="0"/>
         <v>01-Jul-19</v>
       </c>
       <c r="D4" s="1">
@@ -567,18 +561,18 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>TEXT(D5,"DD-MMM-YY")</f>
+        <f t="shared" si="0"/>
         <v>15-Jul-19</v>
       </c>
       <c r="D5" s="1">
@@ -591,103 +585,92 @@
         <v>0.5</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f>TEXT(D6,"DD-MMM-YY")</f>
-        <v>15-Aug-19</v>
+        <f t="shared" si="0"/>
+        <v>01-Aug-19</v>
       </c>
       <c r="D6" s="1">
-        <v>43692</v>
+        <v>43678</v>
       </c>
       <c r="E6" s="3">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F6" s="5">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>15-Aug-19</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43692</v>
+      </c>
+      <c r="E7" s="3">
         <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <f>TEXT(D7,"DD-MMM-YY")</f>
-        <v>01-Aug-19</v>
-      </c>
-      <c r="D7" s="1">
-        <v>43678</v>
-      </c>
-      <c r="E7" s="3">
-        <v>12</v>
       </c>
       <c r="F7" s="5">
         <v>0.4</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>TEXT(D8,"DD-MMM-YY")</f>
+        <f t="shared" si="0"/>
         <v>15-Aug-19</v>
       </c>
       <c r="D8" s="1">
         <v>43692</v>
       </c>
       <c r="E8" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F8" s="5">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="str">
-        <f>TEXT(D9,"DD-MMM-YY")</f>
-        <v>15-Aug-19</v>
-      </c>
-      <c r="D9" s="1">
-        <v>43692</v>
-      </c>
-      <c r="E9" s="3">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -695,25 +678,12 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="G10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="G11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/planning/TASKS_InstrumentToolkit.xlsx
+++ b/planning/TASKS_InstrumentToolkit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Task</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>DueDate</t>
+  </si>
+  <si>
+    <t>Electrode Calibration Node</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>Develop a general-purpose node for deriving an analyitical result from a voltage and calibration data.</t>
   </si>
 </sst>
 </file>
@@ -453,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +509,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f t="shared" ref="C2:C8" si="0">TEXT(D2,"DD-MMM-YY")</f>
+        <f t="shared" ref="C2:C7" si="0">TEXT(D2,"DD-MMM-YY")</f>
         <v>01-May-19</v>
       </c>
       <c r="D2" s="1">
@@ -644,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C8:C9" si="1">TEXT(D8,"DD-MMM-YY")</f>
         <v>15-Aug-19</v>
       </c>
       <c r="D8" s="1">
@@ -662,20 +671,29 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>01-Sep-19</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43709</v>
+      </c>
+      <c r="E9" s="3">
         <v>20</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
+      <c r="F9" s="5"/>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -683,6 +701,19 @@
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="G11" t="s">
         <v>13</v>
       </c>
     </row>

--- a/planning/TASKS_InstrumentToolkit.xlsx
+++ b/planning/TASKS_InstrumentToolkit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Task</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Develop a general-purpose node for deriving an analyitical result from a voltage and calibration data.</t>
+  </si>
+  <si>
+    <t>Node to convert incoming DIY identifiers to a more descriptive value. (How can we get DIY metadata).</t>
+  </si>
+  <si>
+    <t>EnviroDIY publisher Source</t>
   </si>
 </sst>
 </file>
@@ -462,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +608,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -615,7 +621,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="5">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
@@ -715,6 +721,17 @@
       <c r="D11" s="1"/>
       <c r="G11" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/planning/TASKS_InstrumentToolkit.xlsx
+++ b/planning/TASKS_InstrumentToolkit.xlsx
@@ -111,10 +111,10 @@
     <t>Develop a general-purpose node for deriving an analyitical result from a voltage and calibration data.</t>
   </si>
   <si>
-    <t>Node to convert incoming DIY identifiers to a more descriptive value. (How can we get DIY metadata).</t>
-  </si>
-  <si>
     <t>EnviroDIY publisher Source</t>
+  </si>
+  <si>
+    <t>Node to convert incoming DIY identifiers to a more descriptive value using EnviroDIY metadata.</t>
   </si>
 </sst>
 </file>
@@ -471,12 +471,12 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
@@ -581,50 +581,50 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" ref="C5" si="1">TEXT(D5,"DD-MMM-YY")</f>
+        <v>01-Aug-19</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43678</v>
+      </c>
+      <c r="E5" s="3">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>15-Jul-19</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <v>43661</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="3">
         <v>20</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F6" s="5">
         <v>0.5</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>01-Aug-19</v>
-      </c>
-      <c r="D6" s="1">
-        <v>43678</v>
-      </c>
-      <c r="E6" s="3">
-        <v>12</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f t="shared" ref="C8:C9" si="1">TEXT(D8,"DD-MMM-YY")</f>
+        <f t="shared" ref="C8:C9" si="2">TEXT(D8,"DD-MMM-YY")</f>
         <v>15-Aug-19</v>
       </c>
       <c r="D8" s="1">
@@ -683,7 +683,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01-Sep-19</v>
       </c>
       <c r="D9" s="1">
@@ -725,13 +725,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/planning/TASKS_InstrumentToolkit.xlsx
+++ b/planning/TASKS_InstrumentToolkit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19680" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="5">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G8" t="s">
         <v>25</v>

--- a/planning/TASKS_InstrumentToolkit.xlsx
+++ b/planning/TASKS_InstrumentToolkit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Task</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>Node to convert incoming DIY identifiers to a more descriptive value using EnviroDIY metadata.</t>
+  </si>
+  <si>
+    <t>Integrate Temperature Sensor</t>
+  </si>
+  <si>
+    <t>Select and integrature a water temperature sensor</t>
   </si>
 </sst>
 </file>
@@ -468,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +665,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f t="shared" ref="C8:C9" si="2">TEXT(D8,"DD-MMM-YY")</f>
+        <f t="shared" ref="C8:C10" si="2">TEXT(D8,"DD-MMM-YY")</f>
         <v>15-Aug-19</v>
       </c>
       <c r="D8" s="1">
@@ -677,42 +683,55 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>01-Sep-19</v>
+        <v>15-Aug-19</v>
       </c>
       <c r="D9" s="1">
-        <v>43709</v>
+        <v>43692</v>
       </c>
       <c r="E9" s="3">
-        <v>20</v>
-      </c>
-      <c r="F9" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.8</v>
+      </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>01-Sep-19</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43709</v>
+      </c>
+      <c r="E10" s="3">
         <v>20</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
+      <c r="F10" s="5">
+        <v>0.1</v>
+      </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -720,17 +739,30 @@
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
       <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
         <v>32</v>
       </c>
     </row>

--- a/planning/TASKS_InstrumentToolkit.xlsx
+++ b/planning/TASKS_InstrumentToolkit.xlsx
@@ -477,7 +477,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,10 +618,10 @@
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>15-Jul-19</v>
+        <v>15-Aug-19</v>
       </c>
       <c r="D6" s="1">
-        <v>43661</v>
+        <v>43692</v>
       </c>
       <c r="E6" s="3">
         <v>20</v>

--- a/planning/TASKS_InstrumentToolkit.xlsx
+++ b/planning/TASKS_InstrumentToolkit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Task</t>
   </si>
@@ -36,12 +36,6 @@
     <t>Active</t>
   </si>
   <si>
-    <t>Develop an integration node and other components to integrate with and input data from the EnviroDIY Mayfly data logger</t>
-  </si>
-  <si>
-    <t>Mayfly Source Node</t>
-  </si>
-  <si>
     <t>Wifi Uplink Radio</t>
   </si>
   <si>
@@ -60,12 +54,6 @@
     <t>Develop a control node for simplifying setup and control of a Mayfly Data Logger</t>
   </si>
   <si>
-    <t>Mayfly VDAB Sketch</t>
-  </si>
-  <si>
-    <t>Develop a Mayfly sketch optimized to work with the VDAB Control and Source Nodes.</t>
-  </si>
-  <si>
     <t>Develop support for 4G communications form the PI3 hub or integrated monitoring station.</t>
   </si>
   <si>
@@ -121,6 +109,12 @@
   </si>
   <si>
     <t>Select and integrature a water temperature sensor</t>
+  </si>
+  <si>
+    <t>Depth Temperature Station Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test a station incorporating a depth and temperature sensor </t>
   </si>
 </sst>
 </file>
@@ -474,15 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
@@ -498,16 +492,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -521,7 +515,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f t="shared" ref="C2:C7" si="0">TEXT(D2,"DD-MMM-YY")</f>
+        <f t="shared" ref="C2:C4" si="0">TEXT(D2,"DD-MMM-YY")</f>
         <v>01-May-19</v>
       </c>
       <c r="D2" s="1">
@@ -534,12 +528,12 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -558,12 +552,12 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -582,12 +576,12 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -606,127 +600,116 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C6:C9" si="2">TEXT(D6,"DD-MMM-YY")</f>
         <v>15-Aug-19</v>
       </c>
       <c r="D6" s="1">
         <v>43692</v>
       </c>
       <c r="E6" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F6" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15-Aug-19</v>
       </c>
       <c r="D7" s="1">
         <v>43692</v>
       </c>
       <c r="E7" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F7" s="5">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f t="shared" ref="C8:C10" si="2">TEXT(D8,"DD-MMM-YY")</f>
-        <v>15-Aug-19</v>
+        <f t="shared" si="2"/>
+        <v>21-Sep-19</v>
       </c>
       <c r="D8" s="1">
-        <v>43692</v>
+        <v>43729</v>
       </c>
       <c r="E8" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>15-Aug-19</v>
+        <v>21-Sep-19</v>
       </c>
       <c r="D9" s="1">
-        <v>43692</v>
+        <v>43729</v>
       </c>
       <c r="E9" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F9" s="5">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>01-Sep-19</v>
-      </c>
-      <c r="D10" s="1">
-        <v>43709</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.1</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -734,36 +717,23 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
+        <v>16</v>
+      </c>
       <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/planning/TASKS_InstrumentToolkit.xlsx
+++ b/planning/TASKS_InstrumentToolkit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Task</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t xml:space="preserve">Test a station incorporating a depth and temperature sensor </t>
+  </si>
+  <si>
+    <t>LoRa Radio Support</t>
+  </si>
+  <si>
+    <t>Develop support for LoRa communications to a PI3 hub</t>
   </si>
 </sst>
 </file>
@@ -468,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,10 +666,10 @@
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>21-Sep-19</v>
+        <v>01-Nov-19</v>
       </c>
       <c r="D8" s="1">
-        <v>43729</v>
+        <v>43770</v>
       </c>
       <c r="E8" s="3">
         <v>30</v>
@@ -684,10 +690,10 @@
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>21-Sep-19</v>
+        <v>01-Nov-19</v>
       </c>
       <c r="D9" s="1">
-        <v>43729</v>
+        <v>43770</v>
       </c>
       <c r="E9" s="3">
         <v>20</v>
@@ -701,20 +707,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -722,17 +730,30 @@
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
       <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
         <v>28</v>
       </c>
     </row>

--- a/planning/TASKS_InstrumentToolkit.xlsx
+++ b/planning/TASKS_InstrumentToolkit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19680" windowHeight="9435"/>
+    <workbookView xWindow="3630" yWindow="870" windowWidth="19680" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Task</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>Develop support for LoRa communications to a PI3 hub</t>
+  </si>
+  <si>
+    <t>Deploy Monitoring Station</t>
+  </si>
+  <si>
+    <t>Deploy a water monitoring station at the Watershed Stewardship Center</t>
+  </si>
+  <si>
+    <t>Build  Station Dashboard</t>
+  </si>
+  <si>
+    <t>Build a dashboard for the deployed monitoring station.</t>
   </si>
 </sst>
 </file>
@@ -474,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,7 +687,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="5">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
@@ -690,16 +702,16 @@
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>01-Nov-19</v>
+        <v>01-Dec-19</v>
       </c>
       <c r="D9" s="1">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="E9" s="3">
         <v>20</v>
       </c>
       <c r="F9" s="5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G9" t="s">
         <v>26</v>
@@ -707,53 +719,83 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="5"/>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5"/>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="5"/>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
       <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
         <v>28</v>
       </c>
     </row>

--- a/planning/TASKS_InstrumentToolkit.xlsx
+++ b/planning/TASKS_InstrumentToolkit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="870" windowWidth="19680" windowHeight="9435"/>
+    <workbookView xWindow="660" yWindow="-270" windowWidth="19680" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>Complete</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
     <t>Wifi Uplink Radio</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>Build a dashboard for the deployed monitoring station.</t>
+  </si>
+  <si>
+    <t>Complee</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,16 +510,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -546,12 +546,12 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -570,12 +570,12 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -594,12 +594,12 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -618,12 +618,12 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -642,12 +642,12 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -666,15 +666,15 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="2"/>
@@ -687,18 +687,18 @@
         <v>30</v>
       </c>
       <c r="F8" s="5">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="2"/>
@@ -711,92 +711,92 @@
         <v>20</v>
       </c>
       <c r="F9" s="5">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="5"/>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="3"/>
       <c r="F11" s="5"/>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
       <c r="E12" s="3"/>
       <c r="F12" s="5"/>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/planning/TASKS_InstrumentToolkit.xlsx
+++ b/planning/TASKS_InstrumentToolkit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Task</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Develop support for LoRa communications to a PI3 hub</t>
   </si>
   <si>
-    <t>Deploy Monitoring Station</t>
-  </si>
-  <si>
     <t>Deploy a water monitoring station at the Watershed Stewardship Center</t>
   </si>
   <si>
@@ -132,7 +129,13 @@
     <t>Build a dashboard for the deployed monitoring station.</t>
   </si>
   <si>
-    <t>Complee</t>
+    <t>Complete River Monitoring Station</t>
+  </si>
+  <si>
+    <t>Deploy River Monitoring Station</t>
+  </si>
+  <si>
+    <t>Complete weatherproofing and packaging of a complete water monitoring station</t>
   </si>
 </sst>
 </file>
@@ -486,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f t="shared" ref="C6:C9" si="2">TEXT(D6,"DD-MMM-YY")</f>
+        <f t="shared" ref="C6:C12" si="2">TEXT(D6,"DD-MMM-YY")</f>
         <v>15-Aug-19</v>
       </c>
       <c r="D6" s="1">
@@ -698,7 +701,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="2"/>
@@ -719,65 +722,86 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>05-Jan-20</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43835</v>
+      </c>
+      <c r="E10" s="3">
+        <v>80</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>01-Feb-20</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43862</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="5"/>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>15-Feb-20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43876</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="5"/>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5"/>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -785,17 +809,30 @@
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
       <c r="G15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
         <v>27</v>
       </c>
     </row>

--- a/planning/TASKS_InstrumentToolkit.xlsx
+++ b/planning/TASKS_InstrumentToolkit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="-270" windowWidth="19680" windowHeight="9435"/>
+    <workbookView xWindow="660" yWindow="-270" windowWidth="20370" windowHeight="9825"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Task</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Board Selection</t>
-  </si>
-  <si>
     <t>Complete</t>
   </si>
   <si>
@@ -42,9 +39,6 @@
     <t>4G Radio Support</t>
   </si>
   <si>
-    <t>Evaluate analog boards that are appropriate for use with standard analytical electrodes.  (EnviroDIY Mayfly was selected)</t>
-  </si>
-  <si>
     <t>Mayfly Control Node</t>
   </si>
   <si>
@@ -54,15 +48,6 @@
     <t>Develop support for 4G communications form the PI3 hub or integrated monitoring station.</t>
   </si>
   <si>
-    <t>MyWatershedTarget Node</t>
-  </si>
-  <si>
-    <t>Modular VDAB Publisher</t>
-  </si>
-  <si>
-    <t>Develop a modular publisher library compatible with EnviroDIY modular sensor library.</t>
-  </si>
-  <si>
     <t>Proposed</t>
   </si>
   <si>
@@ -81,39 +66,12 @@
     <t>Select, integrate and test a Depth Sensor with the standalone Mayfly Data Logger</t>
   </si>
   <si>
-    <t>Develop a target node which posts data to the Monitor My Watershed ODM2 Data Portal</t>
-  </si>
-  <si>
     <t>DueDate</t>
   </si>
   <si>
-    <t>Electrode Calibration Node</t>
-  </si>
-  <si>
-    <t>Scheduled</t>
-  </si>
-  <si>
-    <t>Develop a general-purpose node for deriving an analyitical result from a voltage and calibration data.</t>
-  </si>
-  <si>
-    <t>EnviroDIY publisher Source</t>
-  </si>
-  <si>
-    <t>Node to convert incoming DIY identifiers to a more descriptive value using EnviroDIY metadata.</t>
-  </si>
-  <si>
     <t>Integrate Temperature Sensor</t>
   </si>
   <si>
-    <t>Select and integrature a water temperature sensor</t>
-  </si>
-  <si>
-    <t>Depth Temperature Station Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test a station incorporating a depth and temperature sensor </t>
-  </si>
-  <si>
     <t>LoRa Radio Support</t>
   </si>
   <si>
@@ -136,6 +94,12 @@
   </si>
   <si>
     <t>Complete weatherproofing and packaging of a complete water monitoring station</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Select and integrate  a water temperature sensor</t>
   </si>
 </sst>
 </file>
@@ -171,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -180,9 +144,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -489,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,16 +474,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -530,118 +491,118 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="2" t="str">
-        <f t="shared" ref="C2:C4" si="0">TEXT(D2,"DD-MMM-YY")</f>
-        <v>01-May-19</v>
+        <f t="shared" ref="C2" si="0">TEXT(D2,"DD-MMM-YY")</f>
+        <v>01-Jul-19</v>
       </c>
       <c r="D2" s="1">
-        <v>43586</v>
+        <v>43647</v>
       </c>
       <c r="E2" s="3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>01-Jul-19</v>
+        <f t="shared" ref="C3:C7" si="1">TEXT(D3,"DD-MMM-YY")</f>
+        <v>15-Aug-19</v>
       </c>
       <c r="D3" s="1">
-        <v>43647</v>
+        <v>43692</v>
       </c>
       <c r="E3" s="3">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>01-Jul-19</v>
+        <f t="shared" si="1"/>
+        <v>15-Aug-19</v>
       </c>
       <c r="D4" s="1">
-        <v>43647</v>
+        <v>43692</v>
       </c>
       <c r="E4" s="3">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f t="shared" ref="C5" si="1">TEXT(D5,"DD-MMM-YY")</f>
-        <v>01-Aug-19</v>
+        <f t="shared" si="1"/>
+        <v>01-Feb-20</v>
       </c>
       <c r="D5" s="1">
-        <v>43678</v>
+        <v>43862</v>
       </c>
       <c r="E5" s="3">
-        <v>12</v>
-      </c>
-      <c r="F5" s="5">
+        <v>80</v>
+      </c>
+      <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f t="shared" ref="C6:C12" si="2">TEXT(D6,"DD-MMM-YY")</f>
-        <v>15-Aug-19</v>
+        <f t="shared" si="1"/>
+        <v>01-Mar-20</v>
       </c>
       <c r="D6" s="1">
-        <v>43692</v>
+        <v>43891</v>
       </c>
       <c r="E6" s="3">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5">
+        <v>80</v>
+      </c>
+      <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" t="s">
@@ -650,190 +611,67 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>15-Aug-19</v>
+        <f t="shared" si="1"/>
+        <v>01-Apr-20</v>
       </c>
       <c r="D7" s="1">
-        <v>43692</v>
+        <v>43922</v>
       </c>
       <c r="E7" s="3">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5">
+        <v>80</v>
+      </c>
+      <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>01-Nov-19</v>
-      </c>
-      <c r="D8" s="1">
-        <v>43770</v>
-      </c>
-      <c r="E8" s="3">
-        <v>30</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>01-Dec-19</v>
-      </c>
-      <c r="D9" s="1">
-        <v>43800</v>
-      </c>
-      <c r="E9" s="3">
-        <v>20</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>05-Jan-20</v>
-      </c>
-      <c r="D10" s="1">
-        <v>43835</v>
-      </c>
-      <c r="E10" s="3">
-        <v>80</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
       <c r="G10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>01-Feb-20</v>
-      </c>
-      <c r="D11" s="1">
-        <v>43862</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="5"/>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>15-Feb-20</v>
-      </c>
-      <c r="D12" s="1">
-        <v>43876</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="5"/>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="5"/>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
